--- a/data/trans_dic/P16A11-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P16A11-Dificultad-trans_dic.xlsx
@@ -543,7 +543,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para la tensión arterial en las dos últimas semanas (tasa de respuesta: 99,92%)</t>
+          <t>Población que ha consumido medicamentos para la tensión arterial en las dos últimas semanas (tasa de respuesta: 99,92%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1391,7 +1391,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para la tensión arterial en las dos últimas semanas (tasa de respuesta: 99,92%)</t>
+          <t>Población que ha consumido medicamentos para la tensión arterial en las dos últimas semanas (tasa de respuesta: 99,92%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/P16A11-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P16A11-Dificultad-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1616117855095373</v>
+        <v>0.1635579714361439</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1301419439616608</v>
+        <v>0.131643806412594</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.120920651746538</v>
+        <v>0.122008428768287</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1437249018028566</v>
+        <v>0.1428480826098035</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.2095167993717967</v>
+        <v>0.2117121749316449</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.2021642999888294</v>
+        <v>0.2019033037673941</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1767449358057882</v>
+        <v>0.1766722911498449</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.2501166558317215</v>
+        <v>0.2540901820302643</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.2010694988011479</v>
+        <v>0.2019031834577313</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.1762282059770423</v>
+        <v>0.1747516339590713</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.1552446882200942</v>
+        <v>0.1573601026534664</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.2113145264332581</v>
+        <v>0.2104768642131594</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2275040782340446</v>
+        <v>0.2315262173385756</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1781968898283226</v>
+        <v>0.1772825399546518</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1648455929046368</v>
+        <v>0.1637097802133735</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.209041303318591</v>
+        <v>0.2090821372442345</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2664295085576047</v>
+        <v>0.2667439471925185</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.2536907328810146</v>
+        <v>0.2555734781066816</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.2267460329317409</v>
+        <v>0.2269325261696857</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.3079504169927565</v>
+        <v>0.3121264708673117</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.2456267641182327</v>
+        <v>0.2429815788039628</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.2109238946208691</v>
+        <v>0.2103369545862755</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.1879773357801109</v>
+        <v>0.189499589120683</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.2530362143291076</v>
+        <v>0.2551891351872904</v>
       </c>
     </row>
     <row r="7">
@@ -833,7 +833,7 @@
         <v>0.154337131761245</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.197311849138005</v>
+        <v>0.1973118491380049</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.09772680854218524</v>
+        <v>0.09882503634617215</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1517748537307211</v>
+        <v>0.1548374904417679</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1216050828064453</v>
+        <v>0.1223974859101452</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1519708722972453</v>
+        <v>0.1547433042957502</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.135912647709578</v>
+        <v>0.1360287300759278</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1838868090769406</v>
+        <v>0.1809931866698441</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1403706876589348</v>
+        <v>0.1410552363148863</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1957040487090728</v>
+        <v>0.1950742200062865</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1226137395460874</v>
+        <v>0.122100465210766</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.1749827372678524</v>
+        <v>0.1761875437971784</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.1382989674618098</v>
+        <v>0.1377550791661047</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1832680631166601</v>
+        <v>0.1827875981428611</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.135030464970408</v>
+        <v>0.1361537304454506</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2023675162853781</v>
+        <v>0.2046859023258394</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1673398278414716</v>
+        <v>0.1690894556247005</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1997574958168369</v>
+        <v>0.2066689412453762</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.180495977692322</v>
+        <v>0.179916260391702</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.2339707468452583</v>
+        <v>0.2325462868325209</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1885465300765563</v>
+        <v>0.1882561927049658</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2346008880100114</v>
+        <v>0.2328368637691508</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1516738874720703</v>
+        <v>0.1509140007683521</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.2097634527928932</v>
+        <v>0.2105009137891546</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.1735313732011299</v>
+        <v>0.1709481766165611</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.2129390396326286</v>
+        <v>0.2138852820809165</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.1728349256406238</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.1806042333756827</v>
+        <v>0.1806042333756828</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.121860570645651</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.09630059822662225</v>
+        <v>0.09678869072078035</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1507261657260761</v>
+        <v>0.1494551558605762</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1358345832279081</v>
+        <v>0.1357364442280868</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1811293767103958</v>
+        <v>0.1822729083727184</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1087991908215389</v>
+        <v>0.1089362052386728</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1830223405086947</v>
+        <v>0.1838445630066752</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1478635763222002</v>
+        <v>0.1457707456816554</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1640723465300168</v>
+        <v>0.1620857969076689</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1084554927751714</v>
+        <v>0.107750016394328</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.172497928029973</v>
+        <v>0.173513459660298</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.147407611081456</v>
+        <v>0.1458219758021017</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1768190810416605</v>
+        <v>0.1777196329087403</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1359875057421592</v>
+        <v>0.1342708207371721</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2011607611636402</v>
+        <v>0.2002863951685444</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1860115882969151</v>
+        <v>0.1871734492166204</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2263357031447882</v>
+        <v>0.2315532893293459</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1512989197087618</v>
+        <v>0.1535803018072239</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.2405001187368109</v>
+        <v>0.2377028928194101</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.205515926324208</v>
+        <v>0.2029725702356761</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1990374669791581</v>
+        <v>0.1997479994263944</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1361366050437898</v>
+        <v>0.1352918694142231</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.2126319964548005</v>
+        <v>0.2146609704331573</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.1846790491943686</v>
+        <v>0.1854646517240451</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.2055359341090014</v>
+        <v>0.2066271084131444</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.06536466340777046</v>
+        <v>0.06523165629155872</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1206012933472468</v>
+        <v>0.1168432629934723</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1278305215019077</v>
+        <v>0.1268892007981611</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1678710683678082</v>
+        <v>0.1695580626200461</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.07296931733555928</v>
+        <v>0.07638028434258289</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1234203669308214</v>
+        <v>0.1210134131405283</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.117782210628434</v>
+        <v>0.11647597626243</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1525774542890271</v>
+        <v>0.1508576098375369</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.07539238072460776</v>
+        <v>0.07556917295439533</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.1275970047012281</v>
+        <v>0.1298078661212286</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1303734910128534</v>
+        <v>0.1309950983984132</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.167098981240768</v>
+        <v>0.1664834113222282</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1180249505092378</v>
+        <v>0.1185186531540081</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1862789574193831</v>
+        <v>0.1853284750034112</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1948463541822076</v>
+        <v>0.1915194779860807</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2176148835006773</v>
+        <v>0.2204165598267475</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1379169125663827</v>
+        <v>0.1434368473493649</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1984106792380604</v>
+        <v>0.191629987184373</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1886606214485516</v>
+        <v>0.1919999300446301</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.19070357204099</v>
+        <v>0.1895586050449525</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1172816820528801</v>
+        <v>0.116593123122829</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.1781809907327711</v>
+        <v>0.1788023254616133</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1797830869606552</v>
+        <v>0.1834089042122432</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1980019468810109</v>
+        <v>0.198991419126942</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1154388669171014</v>
+        <v>0.1147415642771801</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1529750646346832</v>
+        <v>0.1524905065604141</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1374028776100663</v>
+        <v>0.1365487794614345</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1764012801751021</v>
+        <v>0.1780365029779829</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.1532894292087052</v>
+        <v>0.1532701039736654</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.1945107619270928</v>
+        <v>0.194349883718901</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1638676373498855</v>
+        <v>0.1640645675413751</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1943480331733544</v>
+        <v>0.195066396981484</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1375340451136398</v>
+        <v>0.1382890969218158</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.1780735182426171</v>
+        <v>0.1778638510826464</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.1546025113032835</v>
+        <v>0.1540908198742992</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1889232003905854</v>
+        <v>0.1896227749638477</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1385988801342082</v>
+        <v>0.1375804540041331</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1799414430863094</v>
+        <v>0.1791523965685734</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1610512415766792</v>
+        <v>0.1613692623465686</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2010816987195429</v>
+        <v>0.2030575659406432</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1792832711862265</v>
+        <v>0.1787632229125838</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.2224585907558452</v>
+        <v>0.2230669465650608</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1903779383605699</v>
+        <v>0.1907837475631504</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2151532233877755</v>
+        <v>0.2163557604269352</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1547470689469567</v>
+        <v>0.1552196721603513</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.1967945017604582</v>
+        <v>0.1974619702953205</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.1723863071168018</v>
+        <v>0.1732426510811695</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.2056150868307768</v>
+        <v>0.206195302456824</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>94404</v>
+        <v>95541</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>135583</v>
+        <v>137148</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>136398</v>
+        <v>137625</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>71681</v>
+        <v>71244</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>193244</v>
+        <v>195269</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>225154</v>
+        <v>224863</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>222621</v>
+        <v>222530</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>155968</v>
+        <v>158446</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>302906</v>
+        <v>304162</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>379864</v>
+        <v>376681</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>370656</v>
+        <v>375706</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>237163</v>
+        <v>236222</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>132894</v>
+        <v>135244</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>185647</v>
+        <v>184694</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>185945</v>
+        <v>184664</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>104257</v>
+        <v>104277</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>245737</v>
+        <v>246027</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>282539</v>
+        <v>284636</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>285600</v>
+        <v>285835</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>192032</v>
+        <v>194636</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>370030</v>
+        <v>366045</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>454652</v>
+        <v>453386</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>448807</v>
+        <v>452441</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>283988</v>
+        <v>286404</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>105339</v>
+        <v>106523</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>148033</v>
+        <v>151020</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>110518</v>
+        <v>111238</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>145913</v>
+        <v>148575</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>143733</v>
+        <v>143856</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>200822</v>
+        <v>197662</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>141280</v>
+        <v>141969</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>218258</v>
+        <v>217556</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>261833</v>
+        <v>260737</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>361766</v>
+        <v>364257</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>264884</v>
+        <v>263842</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>380351</v>
+        <v>379354</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>145549</v>
+        <v>146759</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>197378</v>
+        <v>199639</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>152083</v>
+        <v>153673</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>191795</v>
+        <v>198430</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>190881</v>
+        <v>190268</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>255518</v>
+        <v>253963</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>189767</v>
+        <v>189475</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>261638</v>
+        <v>259670</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>323889</v>
+        <v>322267</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>433673</v>
+        <v>435198</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>332365</v>
+        <v>327417</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>441930</v>
+        <v>443894</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>107912</v>
+        <v>108459</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>133270</v>
+        <v>132146</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>111895</v>
+        <v>111814</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>189548</v>
+        <v>190745</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>108140</v>
+        <v>108276</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>160101</v>
+        <v>160820</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>114012</v>
+        <v>112398</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>171889</v>
+        <v>169808</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>229331</v>
+        <v>227839</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>303415</v>
+        <v>305201</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>235088</v>
+        <v>232560</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>370281</v>
+        <v>372166</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>152384</v>
+        <v>150461</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>177863</v>
+        <v>177090</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>153229</v>
+        <v>154186</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>236856</v>
+        <v>242316</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>150382</v>
+        <v>152650</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>210380</v>
+        <v>207933</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>158465</v>
+        <v>156504</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>208520</v>
+        <v>209264</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>287863</v>
+        <v>286077</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>374008</v>
+        <v>377577</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>294529</v>
+        <v>295782</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>430417</v>
+        <v>432702</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>29231</v>
+        <v>29172</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>60665</v>
+        <v>58775</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>64772</v>
+        <v>64295</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>163675</v>
+        <v>165320</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>24894</v>
+        <v>26058</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>55646</v>
+        <v>54561</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>57678</v>
+        <v>57038</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>138638</v>
+        <v>137076</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>59436</v>
+        <v>59576</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>121714</v>
+        <v>123823</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>129904</v>
+        <v>130523</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>314756</v>
+        <v>313596</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>52781</v>
+        <v>53002</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>93703</v>
+        <v>93224</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>98729</v>
+        <v>97043</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>212176</v>
+        <v>214908</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>47051</v>
+        <v>48935</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>89457</v>
+        <v>86400</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>92387</v>
+        <v>94022</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>173281</v>
+        <v>172241</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>92460</v>
+        <v>91917</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>169965</v>
+        <v>170558</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>179136</v>
+        <v>182748</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>372966</v>
+        <v>374830</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>372846</v>
+        <v>370594</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>520782</v>
+        <v>519133</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>462674</v>
+        <v>459798</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>613940</v>
+        <v>619631</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>508150</v>
+        <v>508086</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>686903</v>
+        <v>686335</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>577927</v>
+        <v>578622</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>718137</v>
+        <v>720792</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>900130</v>
+        <v>905072</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>1235082</v>
+        <v>1233628</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>1065841</v>
+        <v>1062314</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>1355613</v>
+        <v>1360633</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>447648</v>
+        <v>444359</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>612585</v>
+        <v>609899</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>542305</v>
+        <v>543376</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>699837</v>
+        <v>706714</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>594318</v>
+        <v>592595</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>785599</v>
+        <v>787748</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>671423</v>
+        <v>672855</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>795015</v>
+        <v>799458</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>1012786</v>
+        <v>1015879</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>1364928</v>
+        <v>1369557</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>1188444</v>
+        <v>1194348</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>1475386</v>
+        <v>1479549</v>
       </c>
     </row>
     <row r="24">
